--- a/0. Analisis/REQUERIMIENTOS/Funcionalidades.xlsx
+++ b/0. Analisis/REQUERIMIENTOS/Funcionalidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wuky\GitHub\WebWuky\0. Analisis\REQUERIMIENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4742E71-2AF8-4D78-9EE9-A8C8DDC0A434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B097C22-8A3A-4657-9E31-F8245D95E936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="0" windowWidth="12150" windowHeight="15600" xr2:uid="{A0EC3DF0-8C94-4ABC-AC0A-0CA136EB6599}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -593,6 +593,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,7 +912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,6 +1007,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="13"/>
       <c r="E13" t="s">
         <v>18</v>
       </c>

--- a/0. Analisis/REQUERIMIENTOS/Funcionalidades.xlsx
+++ b/0. Analisis/REQUERIMIENTOS/Funcionalidades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wuky\GitHub\WebWuky\0. Analisis\REQUERIMIENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Desktop\LaboratorioXUnitTests\WebWuky\0. Analisis\REQUERIMIENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B097C22-8A3A-4657-9E31-F8245D95E936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2A551D-9922-4FF6-A787-7576425A25AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="0" windowWidth="12150" windowHeight="15600" xr2:uid="{A0EC3DF0-8C94-4ABC-AC0A-0CA136EB6599}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A0EC3DF0-8C94-4ABC-AC0A-0CA136EB6599}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -571,12 +571,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -594,6 +588,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,36 +912,36 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="1.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="1.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -949,7 +949,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D3" t="s">
@@ -977,14 +977,14 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="E8" s="3" t="s">
+      <c r="A8" s="4"/>
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="D9" s="3" t="s">
+      <c r="A9" s="4"/>
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D11" t="s">
@@ -1007,7 +1007,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D13" s="13"/>
+      <c r="D13" s="11"/>
       <c r="E13" t="s">
         <v>18</v>
       </c>
@@ -1018,7 +1018,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D15" t="s">
@@ -1041,8 +1041,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="D19" s="7" t="s">
+      <c r="A19" s="4"/>
+      <c r="D19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D24" t="s">
@@ -1068,7 +1068,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E26" t="s">
@@ -1081,65 +1081,65 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="E28" s="8" t="s">
+      <c r="A28" s="7"/>
+      <c r="E28" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="E29" s="8" t="s">
+      <c r="A29" s="7"/>
+      <c r="E29" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="D30" s="3" t="s">
+      <c r="A30" s="4"/>
+      <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="E31" s="3" t="s">
+      <c r="A31" s="4"/>
+      <c r="E31" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="C32" s="3" t="s">
+      <c r="A32" s="4"/>
+      <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="D33" s="3" t="s">
+      <c r="A33" s="4"/>
+      <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="D34" s="3" t="s">
+      <c r="A34" s="4"/>
+      <c r="D34" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="E35" s="3" t="s">
+      <c r="A35" s="4"/>
+      <c r="E35" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="E36" s="3" t="s">
+      <c r="A36" s="4"/>
+      <c r="E36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="D38" s="3" t="s">
+      <c r="A38" s="4"/>
+      <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D40" t="s">
@@ -1157,11 +1157,11 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="E41" s="3" t="s">
+      <c r="A41" s="4"/>
+      <c r="E41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1191,74 +1191,74 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="E47" s="3" t="s">
+      <c r="A47" s="4"/>
+      <c r="E47" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="E48" s="3" t="s">
+      <c r="A48" s="4"/>
+      <c r="E48" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="E49" s="3" t="s">
+      <c r="A49" s="4"/>
+      <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="E50" s="3" t="s">
+      <c r="A50" s="4"/>
+      <c r="E50" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="D51" s="3" t="s">
+      <c r="A51" s="4"/>
+      <c r="D51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="C52" s="3" t="s">
+      <c r="A52" s="4"/>
+      <c r="C52" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="D53" s="3" t="s">
+      <c r="A53" s="4"/>
+      <c r="D53" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="D54" s="3" t="s">
+      <c r="A54" s="4"/>
+      <c r="D54" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="C55" s="3" t="s">
+      <c r="A55" s="4"/>
+      <c r="C55" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="D56" s="3" t="s">
+      <c r="A56" s="4"/>
+      <c r="D56" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="D57" s="3" t="s">
+      <c r="A57" s="4"/>
+      <c r="D57" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="D58" s="3" t="s">
+      <c r="A58" s="4"/>
+      <c r="D58" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/0. Analisis/REQUERIMIENTOS/Funcionalidades.xlsx
+++ b/0. Analisis/REQUERIMIENTOS/Funcionalidades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Desktop\LaboratorioXUnitTests\WebWuky\0. Analisis\REQUERIMIENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\WebWuky\0. Analisis\REQUERIMIENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2A551D-9922-4FF6-A787-7576425A25AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47AFEEE-9873-4CC7-ADB8-1F987CAAE840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A0EC3DF0-8C94-4ABC-AC0A-0CA136EB6599}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -911,8 +909,8 @@
   <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
